--- a/disagreement_matrix/engineering_version/rsj_matrix_records/Hepatitis_withoutdupl_16_ido.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/Hepatitis_withoutdupl_16_ido.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,2328 +394,2085 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.128377063640107</v>
+        <v>0.1661094040401884</v>
       </c>
       <c r="C2">
-        <v>0.1946134862638223</v>
+        <v>0.2380794234605468</v>
       </c>
       <c r="D2">
-        <v>0.07453699578354821</v>
+        <v>0.09183668738050232</v>
       </c>
       <c r="E2">
-        <v>0.04192689321824352</v>
+        <v>0.05118697375410447</v>
       </c>
       <c r="F2">
-        <v>0.02478076637512254</v>
+        <v>0.03129363882459411</v>
       </c>
       <c r="G2">
-        <v>0.1847679428050469</v>
+        <v>0.2224103354196422</v>
       </c>
       <c r="H2">
-        <v>0.1653892834471597</v>
-      </c>
-      <c r="I2">
-        <v>0.1856075684669498</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.1990835371204216</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1316208638371114</v>
+        <v>0.1550780169546908</v>
       </c>
       <c r="C3">
-        <v>0.2096799150484954</v>
+        <v>0.2501606015170474</v>
       </c>
       <c r="D3">
-        <v>0.06636057855574079</v>
+        <v>0.08050055147927961</v>
       </c>
       <c r="E3">
-        <v>0.05515593616944772</v>
+        <v>0.06634467146488467</v>
       </c>
       <c r="F3">
-        <v>0.02542205573517043</v>
+        <v>0.0310385261273558</v>
       </c>
       <c r="G3">
-        <v>0.1771320545523253</v>
+        <v>0.2092994346788515</v>
       </c>
       <c r="H3">
-        <v>0.1762254077622966</v>
-      </c>
-      <c r="I3">
-        <v>0.1584031883394124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.2075781977778902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.07807329667206342</v>
+        <v>0.08136304263807012</v>
       </c>
       <c r="C4">
-        <v>0.0519142569964058</v>
+        <v>0.05478250145806835</v>
       </c>
       <c r="D4">
-        <v>0.289790916652939</v>
+        <v>0.310981649850476</v>
       </c>
       <c r="E4">
-        <v>0.2335683093663705</v>
+        <v>0.251559723171389</v>
       </c>
       <c r="F4">
-        <v>0.1297727501915731</v>
+        <v>0.1373296647182381</v>
       </c>
       <c r="G4">
-        <v>0.08001185894191681</v>
+        <v>0.0858119200675818</v>
       </c>
       <c r="H4">
-        <v>0.07436092569069234</v>
-      </c>
-      <c r="I4">
-        <v>0.06250768548803902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.07817149809617654</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1505309103796305</v>
+        <v>0.1800739372537774</v>
       </c>
       <c r="C5">
-        <v>0.1910738841522144</v>
+        <v>0.2292678284377468</v>
       </c>
       <c r="D5">
-        <v>0.1063065810154941</v>
+        <v>0.1084330429706438</v>
       </c>
       <c r="E5">
-        <v>0.09129818664417941</v>
+        <v>0.09638209761960528</v>
       </c>
       <c r="F5">
-        <v>0.02864868960514831</v>
+        <v>0.03301235204408894</v>
       </c>
       <c r="G5">
-        <v>0.1313399086893133</v>
+        <v>0.1694278431249376</v>
       </c>
       <c r="H5">
-        <v>0.156943775664313</v>
-      </c>
-      <c r="I5">
-        <v>0.143858063849707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.1834028985492003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08948191848927592</v>
+        <v>0.1016934249767723</v>
       </c>
       <c r="C6">
-        <v>0.08855334042056677</v>
+        <v>0.09677946999540418</v>
       </c>
       <c r="D6">
-        <v>0.1847255069214396</v>
+        <v>0.2012080322812847</v>
       </c>
       <c r="E6">
-        <v>0.153191680943986</v>
+        <v>0.1660118639239735</v>
       </c>
       <c r="F6">
-        <v>0.1691249573079232</v>
+        <v>0.1794323181464028</v>
       </c>
       <c r="G6">
-        <v>0.1200466747515465</v>
+        <v>0.1326394762907057</v>
       </c>
       <c r="H6">
-        <v>0.1160922249866635</v>
-      </c>
-      <c r="I6">
-        <v>0.07878369617859857</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.122235414385457</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1082762337086145</v>
+        <v>0.1151138987291654</v>
       </c>
       <c r="C7">
-        <v>0.07563570524684343</v>
+        <v>0.08339560096331164</v>
       </c>
       <c r="D7">
-        <v>0.1588585713465467</v>
+        <v>0.1696750599143558</v>
       </c>
       <c r="E7">
-        <v>0.1955985420289832</v>
+        <v>0.2164196451355072</v>
       </c>
       <c r="F7">
-        <v>0.2008314120268658</v>
+        <v>0.2147915963246603</v>
       </c>
       <c r="G7">
-        <v>0.1000439707739154</v>
+        <v>0.1103082091794089</v>
       </c>
       <c r="H7">
-        <v>0.08132803708850221</v>
-      </c>
-      <c r="I7">
-        <v>0.07942752777972895</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.09029598975359089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1352185457494749</v>
+        <v>0.1550921736249596</v>
       </c>
       <c r="C8">
-        <v>0.1328219921145968</v>
+        <v>0.1498971054677284</v>
       </c>
       <c r="D8">
-        <v>0.124104936991796</v>
+        <v>0.139803831181693</v>
       </c>
       <c r="E8">
-        <v>0.1074496778379386</v>
+        <v>0.1221113868065746</v>
       </c>
       <c r="F8">
-        <v>0.09597946081688297</v>
+        <v>0.1056257762395313</v>
       </c>
       <c r="G8">
-        <v>0.1612241188056018</v>
+        <v>0.1796883684637599</v>
       </c>
       <c r="H8">
-        <v>0.129217795878947</v>
-      </c>
-      <c r="I8">
-        <v>0.1139834718047619</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.1477813582157531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1610043497748866</v>
+        <v>0.1920920554821485</v>
       </c>
       <c r="C9">
-        <v>0.1935731327378866</v>
+        <v>0.2260249600964074</v>
       </c>
       <c r="D9">
-        <v>0.06085954886035366</v>
+        <v>0.07141021910573392</v>
       </c>
       <c r="E9">
-        <v>0.07737100554661808</v>
+        <v>0.09094859809897243</v>
       </c>
       <c r="F9">
-        <v>0.03642377427986296</v>
+        <v>0.04287451905541821</v>
       </c>
       <c r="G9">
-        <v>0.1767911407626078</v>
+        <v>0.2031083839850336</v>
       </c>
       <c r="H9">
-        <v>0.1452823188426829</v>
-      </c>
-      <c r="I9">
-        <v>0.1486947291951013</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.1735412641762857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.147249551513476</v>
+        <v>0.1697431377558167</v>
       </c>
       <c r="C10">
-        <v>0.1883378430681285</v>
+        <v>0.2299373075528376</v>
       </c>
       <c r="D10">
-        <v>0.06032057412364279</v>
+        <v>0.07814101884042662</v>
       </c>
       <c r="E10">
-        <v>0.07940689393840805</v>
+        <v>0.0937463497644636</v>
       </c>
       <c r="F10">
-        <v>0.02270999714122154</v>
+        <v>0.02811560464604764</v>
       </c>
       <c r="G10">
-        <v>0.1704690620127384</v>
+        <v>0.2011553139624061</v>
       </c>
       <c r="H10">
-        <v>0.168696195962199</v>
-      </c>
-      <c r="I10">
-        <v>0.1628098822401857</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.1991612674780018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.170394857258001</v>
+        <v>0.2013535647086667</v>
       </c>
       <c r="C11">
-        <v>0.1528585714309903</v>
+        <v>0.1843546659311931</v>
       </c>
       <c r="D11">
-        <v>0.08041983470204349</v>
+        <v>0.09953506338079776</v>
       </c>
       <c r="E11">
-        <v>0.06916303032034095</v>
+        <v>0.08749166734100582</v>
       </c>
       <c r="F11">
-        <v>0.04352976811277202</v>
+        <v>0.05777427978908923</v>
       </c>
       <c r="G11">
-        <v>0.1044877009244089</v>
+        <v>0.1242338312735938</v>
       </c>
       <c r="H11">
-        <v>0.2117684916069869</v>
-      </c>
-      <c r="I11">
-        <v>0.1673777456444564</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.2452569275756536</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1141273856934362</v>
+        <v>0.1308553920247086</v>
       </c>
       <c r="C12">
-        <v>0.0690765398201181</v>
+        <v>0.07829213898530175</v>
       </c>
       <c r="D12">
-        <v>0.1602791735679255</v>
+        <v>0.154227810587038</v>
       </c>
       <c r="E12">
-        <v>0.1598101096258808</v>
+        <v>0.155094669135965</v>
       </c>
       <c r="F12">
-        <v>0.1687305639000427</v>
+        <v>0.1873816920773243</v>
       </c>
       <c r="G12">
-        <v>0.1381424882109133</v>
+        <v>0.1440862449246437</v>
       </c>
       <c r="H12">
-        <v>0.1302411434553456</v>
-      </c>
-      <c r="I12">
-        <v>0.05959259572633779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1500620522650187</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1237308891032519</v>
+        <v>0.1411798499899005</v>
       </c>
       <c r="C13">
-        <v>0.2116244051774268</v>
+        <v>0.2481868193578701</v>
       </c>
       <c r="D13">
-        <v>0.0968587279327664</v>
+        <v>0.1204001922314331</v>
       </c>
       <c r="E13">
-        <v>0.08107056440883098</v>
+        <v>0.09448164685009913</v>
       </c>
       <c r="F13">
-        <v>0.01907937381581404</v>
+        <v>0.02261740752476938</v>
       </c>
       <c r="G13">
-        <v>0.1404410271293599</v>
+        <v>0.1618115801319387</v>
       </c>
       <c r="H13">
-        <v>0.1790595359318421</v>
-      </c>
-      <c r="I13">
-        <v>0.1481354765007077</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.2113225039139892</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1415348473717865</v>
+        <v>0.187672116359018</v>
       </c>
       <c r="C14">
-        <v>0.1966360360707003</v>
+        <v>0.2427203434639892</v>
       </c>
       <c r="D14">
-        <v>0.07942471948187485</v>
+        <v>0.09900067034874734</v>
       </c>
       <c r="E14">
-        <v>0.04863207868725803</v>
+        <v>0.06560291556366175</v>
       </c>
       <c r="F14">
-        <v>0.02234145102927613</v>
+        <v>0.02762678110187963</v>
       </c>
       <c r="G14">
-        <v>0.2177966358597346</v>
+        <v>0.2533688759004092</v>
       </c>
       <c r="H14">
-        <v>0.1041682610295312</v>
-      </c>
-      <c r="I14">
-        <v>0.1894659704698386</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.1240082972622947</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1184594858316002</v>
+        <v>0.1397432100456521</v>
       </c>
       <c r="C15">
-        <v>0.1299506238235235</v>
+        <v>0.1475649898343822</v>
       </c>
       <c r="D15">
-        <v>0.1679378642168989</v>
+        <v>0.1827699484932288</v>
       </c>
       <c r="E15">
-        <v>0.1093500419977004</v>
+        <v>0.1226618277647334</v>
       </c>
       <c r="F15">
-        <v>0.1287140345790416</v>
+        <v>0.1408972408465022</v>
       </c>
       <c r="G15">
-        <v>0.12792131082612</v>
+        <v>0.1440965457478745</v>
       </c>
       <c r="H15">
-        <v>0.1077773041969672</v>
-      </c>
-      <c r="I15">
-        <v>0.1098893345281482</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1222662372676269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1999559150193249</v>
+        <v>0.2236651880585022</v>
       </c>
       <c r="C16">
-        <v>0.2463493968398833</v>
+        <v>0.2889526311368111</v>
       </c>
       <c r="D16">
-        <v>0.06560973858662013</v>
+        <v>0.07926893994134636</v>
       </c>
       <c r="E16">
-        <v>0.03162915503318448</v>
+        <v>0.04297032655760166</v>
       </c>
       <c r="F16">
-        <v>0.02354499754362881</v>
+        <v>0.03082644225710596</v>
       </c>
       <c r="G16">
-        <v>0.175446735402322</v>
+        <v>0.2061733764080127</v>
       </c>
       <c r="H16">
-        <v>0.1091889179047655</v>
-      </c>
-      <c r="I16">
-        <v>0.1482751436702708</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1281430956406199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1761546668938719</v>
+        <v>0.1991259547647344</v>
       </c>
       <c r="C17">
-        <v>0.07775990258618236</v>
+        <v>0.08919179145595461</v>
       </c>
       <c r="D17">
-        <v>0.1243638429696458</v>
+        <v>0.1429207694498947</v>
       </c>
       <c r="E17">
-        <v>0.151306916429628</v>
+        <v>0.1733477447640574</v>
       </c>
       <c r="F17">
-        <v>0.09165549970720235</v>
+        <v>0.1052323784047626</v>
       </c>
       <c r="G17">
-        <v>0.1529475294410792</v>
+        <v>0.1760292374027036</v>
       </c>
       <c r="H17">
-        <v>0.1100129747497059</v>
-      </c>
-      <c r="I17">
-        <v>0.1157986672226843</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1141521237578929</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1915850334149533</v>
+        <v>0.2100524396850527</v>
       </c>
       <c r="C18">
-        <v>0.1586216198667649</v>
+        <v>0.1761382512882033</v>
       </c>
       <c r="D18">
-        <v>0.08049554715991347</v>
+        <v>0.09356362581039886</v>
       </c>
       <c r="E18">
-        <v>0.07222763607830347</v>
+        <v>0.08173397365280823</v>
       </c>
       <c r="F18">
-        <v>0.04475779183131688</v>
+        <v>0.05006937233632256</v>
       </c>
       <c r="G18">
-        <v>0.1018297020822876</v>
+        <v>0.1126814333944386</v>
       </c>
       <c r="H18">
-        <v>0.2516292565678374</v>
-      </c>
-      <c r="I18">
-        <v>0.0988534129986231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.2757609038327758</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1274094716122212</v>
+        <v>0.1648578170655169</v>
       </c>
       <c r="C19">
-        <v>0.2393541220962341</v>
+        <v>0.2857486218715686</v>
       </c>
       <c r="D19">
-        <v>0.0493495220170659</v>
+        <v>0.06181364345836768</v>
       </c>
       <c r="E19">
-        <v>0.03966665480467666</v>
+        <v>0.04996325484737191</v>
       </c>
       <c r="F19">
-        <v>0.01939410958341749</v>
+        <v>0.02320578536080488</v>
       </c>
       <c r="G19">
-        <v>0.1811372631807046</v>
+        <v>0.2191549507907207</v>
       </c>
       <c r="H19">
-        <v>0.152326843656187</v>
-      </c>
-      <c r="I19">
-        <v>0.191362013049493</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1952559266056493</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.06055455445103771</v>
+        <v>0.06437469192372891</v>
       </c>
       <c r="C20">
-        <v>0.03377110907101799</v>
+        <v>0.03666799482728691</v>
       </c>
       <c r="D20">
-        <v>0.3538019528108159</v>
+        <v>0.3720449822609597</v>
       </c>
       <c r="E20">
-        <v>0.23717608808245</v>
+        <v>0.2482859813425896</v>
       </c>
       <c r="F20">
-        <v>0.1379851975495334</v>
+        <v>0.1390739399723895</v>
       </c>
       <c r="G20">
-        <v>0.07240032452408598</v>
+        <v>0.07841221027379157</v>
       </c>
       <c r="H20">
-        <v>0.05910567369740015</v>
-      </c>
-      <c r="I20">
-        <v>0.04520509981365883</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.061140199399254</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1015624142818708</v>
+        <v>0.1163222650159795</v>
       </c>
       <c r="C21">
-        <v>0.1189745351695686</v>
+        <v>0.1348492173593651</v>
       </c>
       <c r="D21">
-        <v>0.1441083827706371</v>
+        <v>0.1670240156961439</v>
       </c>
       <c r="E21">
-        <v>0.1201799068434462</v>
+        <v>0.1400879456822421</v>
       </c>
       <c r="F21">
-        <v>0.08251563995108346</v>
+        <v>0.09235380901049842</v>
       </c>
       <c r="G21">
-        <v>0.1578033774584138</v>
+        <v>0.1802923336939616</v>
       </c>
       <c r="H21">
-        <v>0.1489659770073969</v>
-      </c>
-      <c r="I21">
-        <v>0.1258897665175831</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1690704135418095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.09307546674337108</v>
+        <v>0.106383957416652</v>
       </c>
       <c r="C22">
-        <v>0.09621975571135144</v>
+        <v>0.1039060658351977</v>
       </c>
       <c r="D22">
-        <v>0.1616098116939337</v>
+        <v>0.1770897323565509</v>
       </c>
       <c r="E22">
-        <v>0.1447462518293767</v>
+        <v>0.1572516742933737</v>
       </c>
       <c r="F22">
-        <v>0.2018844026937946</v>
+        <v>0.2224467032347028</v>
       </c>
       <c r="G22">
-        <v>0.1042768466341696</v>
+        <v>0.1141668102331728</v>
       </c>
       <c r="H22">
-        <v>0.111200197689853</v>
-      </c>
-      <c r="I22">
-        <v>0.08698726700414978</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1187550566303501</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1654171848078179</v>
+        <v>0.1974263904430655</v>
       </c>
       <c r="C23">
-        <v>0.2005945366524982</v>
+        <v>0.2415014768093203</v>
       </c>
       <c r="D23">
-        <v>0.05032858853190808</v>
+        <v>0.05869317230538374</v>
       </c>
       <c r="E23">
-        <v>0.04377223674508511</v>
+        <v>0.05335454266894192</v>
       </c>
       <c r="F23">
-        <v>0.02225878624875281</v>
+        <v>0.02612641034485059</v>
       </c>
       <c r="G23">
-        <v>0.1932999207192305</v>
+        <v>0.2290695777931112</v>
       </c>
       <c r="H23">
-        <v>0.1591778780992943</v>
-      </c>
-      <c r="I23">
-        <v>0.1651508681954131</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.1938284296353268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1041625062750899</v>
+        <v>0.1151134570520694</v>
       </c>
       <c r="C24">
-        <v>0.05281458492397572</v>
+        <v>0.05519698169651693</v>
       </c>
       <c r="D24">
-        <v>0.3001185109877522</v>
+        <v>0.3156461404159566</v>
       </c>
       <c r="E24">
-        <v>0.216200595370337</v>
+        <v>0.2274724516795021</v>
       </c>
       <c r="F24">
-        <v>0.07188962762146067</v>
+        <v>0.07609311898757437</v>
       </c>
       <c r="G24">
-        <v>0.09030539448370294</v>
+        <v>0.09670739467922324</v>
       </c>
       <c r="H24">
-        <v>0.09967548898772309</v>
-      </c>
-      <c r="I24">
-        <v>0.06483329134995841</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1137704554891573</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1392286271506437</v>
+        <v>0.1632632644193289</v>
       </c>
       <c r="C25">
-        <v>0.2003971192750128</v>
+        <v>0.2355991177852286</v>
       </c>
       <c r="D25">
-        <v>0.08751951259103642</v>
+        <v>0.1042631267311133</v>
       </c>
       <c r="E25">
-        <v>0.06859006528855753</v>
+        <v>0.0812460786716049</v>
       </c>
       <c r="F25">
-        <v>0.01820587662109577</v>
+        <v>0.02137098586225118</v>
       </c>
       <c r="G25">
-        <v>0.2003298003890142</v>
+        <v>0.2404532699851347</v>
       </c>
       <c r="H25">
-        <v>0.1231614207450254</v>
-      </c>
-      <c r="I25">
-        <v>0.1625675779396141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1538041565453385</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.06538057736241137</v>
+        <v>0.0735763853162755</v>
       </c>
       <c r="C26">
-        <v>0.06961320452646312</v>
+        <v>0.07026660379853161</v>
       </c>
       <c r="D26">
-        <v>0.2991376602949911</v>
+        <v>0.3073107422973818</v>
       </c>
       <c r="E26">
-        <v>0.209592019670049</v>
+        <v>0.2335767167288795</v>
       </c>
       <c r="F26">
-        <v>0.1219875422033947</v>
+        <v>0.1135132022797577</v>
       </c>
       <c r="G26">
-        <v>0.1002588017169919</v>
+        <v>0.1062457678862479</v>
       </c>
       <c r="H26">
-        <v>0.08671110623250032</v>
-      </c>
-      <c r="I26">
-        <v>0.04731908799319838</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.09551058169292605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1550287460360209</v>
+        <v>0.1896395893329857</v>
       </c>
       <c r="C27">
-        <v>0.2089894742403478</v>
+        <v>0.2335482456409986</v>
       </c>
       <c r="D27">
-        <v>0.07934979831222719</v>
+        <v>0.08918516421046289</v>
       </c>
       <c r="E27">
-        <v>0.08872534994130565</v>
+        <v>0.1076656239574127</v>
       </c>
       <c r="F27">
-        <v>0.04341521541894296</v>
+        <v>0.04958799252705666</v>
       </c>
       <c r="G27">
-        <v>0.1219882664780061</v>
+        <v>0.1496958074464113</v>
       </c>
       <c r="H27">
-        <v>0.1673772602997776</v>
-      </c>
-      <c r="I27">
-        <v>0.1351258892733717</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.1806775768846721</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.145446588136793</v>
+        <v>0.1786176388122467</v>
       </c>
       <c r="C28">
-        <v>0.2203189878942386</v>
+        <v>0.2578277081831408</v>
       </c>
       <c r="D28">
-        <v>0.0501654119967771</v>
+        <v>0.05930075060332741</v>
       </c>
       <c r="E28">
-        <v>0.03884393232921579</v>
+        <v>0.04806645316063775</v>
       </c>
       <c r="F28">
-        <v>0.0309443259581754</v>
+        <v>0.03607121193535464</v>
       </c>
       <c r="G28">
-        <v>0.1891959747356772</v>
+        <v>0.2276583513955743</v>
       </c>
       <c r="H28">
-        <v>0.1576335041285323</v>
-      </c>
-      <c r="I28">
-        <v>0.1674512748205905</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1924578859097184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1242304557612199</v>
+        <v>0.1481401978692839</v>
       </c>
       <c r="C29">
-        <v>0.2428434563657199</v>
+        <v>0.2709553879918347</v>
       </c>
       <c r="D29">
-        <v>0.08762037387653693</v>
+        <v>0.1030167816622312</v>
       </c>
       <c r="E29">
-        <v>0.0752159664697815</v>
+        <v>0.08518668705714265</v>
       </c>
       <c r="F29">
-        <v>0.02120512394668512</v>
+        <v>0.02449055533299976</v>
       </c>
       <c r="G29">
-        <v>0.1484024327628886</v>
+        <v>0.193068191035882</v>
       </c>
       <c r="H29">
-        <v>0.1455290896635034</v>
-      </c>
-      <c r="I29">
-        <v>0.1549531011536648</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1751421990506258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.01407485790176956</v>
+        <v>0.01488411232475372</v>
       </c>
       <c r="C30">
-        <v>0.006220692956912627</v>
+        <v>0.006541830132442339</v>
       </c>
       <c r="D30">
-        <v>0.3010526224801344</v>
+        <v>0.3433288889928097</v>
       </c>
       <c r="E30">
-        <v>0.3128615664706147</v>
+        <v>0.3567961466953249</v>
       </c>
       <c r="F30">
-        <v>0.2196766528266455</v>
+        <v>0.2505254041935722</v>
       </c>
       <c r="G30">
-        <v>0.01417713479210801</v>
+        <v>0.01587937885408724</v>
       </c>
       <c r="H30">
-        <v>0.01153501658462349</v>
-      </c>
-      <c r="I30">
-        <v>0.1204014559871918</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.01204423880700987</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1810074237404579</v>
+        <v>0.2303399846128397</v>
       </c>
       <c r="C31">
-        <v>0.2402403914331119</v>
+        <v>0.2990819166462222</v>
       </c>
       <c r="D31">
-        <v>0.05336173275366567</v>
+        <v>0.06057494342940615</v>
       </c>
       <c r="E31">
-        <v>0.04170689642471644</v>
+        <v>0.04712118952412063</v>
       </c>
       <c r="F31">
-        <v>0.01737581557488822</v>
+        <v>0.01931825491553448</v>
       </c>
       <c r="G31">
-        <v>0.1980629407661866</v>
+        <v>0.2481708902537863</v>
       </c>
       <c r="H31">
-        <v>0.07816514691961256</v>
-      </c>
-      <c r="I31">
-        <v>0.1900796523873607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.09539282061809069</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.09583639712377323</v>
+        <v>0.1075362446383477</v>
       </c>
       <c r="C32">
-        <v>0.09640650761459997</v>
+        <v>0.1039470183522093</v>
       </c>
       <c r="D32">
-        <v>0.1531560192210247</v>
+        <v>0.1783831880191616</v>
       </c>
       <c r="E32">
-        <v>0.1691690894005195</v>
+        <v>0.1948751568256356</v>
       </c>
       <c r="F32">
-        <v>0.1568619416513486</v>
+        <v>0.1785315838625609</v>
       </c>
       <c r="G32">
-        <v>0.09103142044631349</v>
+        <v>0.100364921763862</v>
       </c>
       <c r="H32">
-        <v>0.1269536156499164</v>
-      </c>
-      <c r="I32">
-        <v>0.110585008892504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1363618865382228</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.1352328573107646</v>
+        <v>0.1582623035737405</v>
       </c>
       <c r="C33">
-        <v>0.1662551245416693</v>
+        <v>0.1928525735975255</v>
       </c>
       <c r="D33">
-        <v>0.1069619589450018</v>
+        <v>0.1216829319737786</v>
       </c>
       <c r="E33">
-        <v>0.09259646837691624</v>
+        <v>0.1067517878647427</v>
       </c>
       <c r="F33">
-        <v>0.09371254533669164</v>
+        <v>0.1086721956901477</v>
       </c>
       <c r="G33">
-        <v>0.1621959435207183</v>
+        <v>0.1872364502445075</v>
       </c>
       <c r="H33">
-        <v>0.1043880160661707</v>
-      </c>
-      <c r="I33">
-        <v>0.1386570859020674</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.1245417570555574</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1817445283489199</v>
+        <v>0.2097951407489174</v>
       </c>
       <c r="C34">
-        <v>0.1497713588952759</v>
+        <v>0.175338357902368</v>
       </c>
       <c r="D34">
-        <v>0.07843284254793882</v>
+        <v>0.09889940814359852</v>
       </c>
       <c r="E34">
-        <v>0.05545151634918367</v>
+        <v>0.06941660881837028</v>
       </c>
       <c r="F34">
-        <v>0.02688503398313749</v>
+        <v>0.03525892815006806</v>
       </c>
       <c r="G34">
-        <v>0.1864585867069178</v>
+        <v>0.2282689817738144</v>
       </c>
       <c r="H34">
-        <v>0.1539865814062907</v>
-      </c>
-      <c r="I34">
-        <v>0.1672695517623358</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1830225744628633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1636196341868297</v>
+        <v>0.1996553383907973</v>
       </c>
       <c r="C35">
-        <v>0.212415332062745</v>
+        <v>0.2591784722580443</v>
       </c>
       <c r="D35">
-        <v>0.06767524374221895</v>
+        <v>0.08027027021502549</v>
       </c>
       <c r="E35">
-        <v>0.03982470710637755</v>
+        <v>0.04853805569898114</v>
       </c>
       <c r="F35">
-        <v>0.01740735540311629</v>
+        <v>0.02102508386730241</v>
       </c>
       <c r="G35">
-        <v>0.1797298877160597</v>
+        <v>0.2201697020876105</v>
       </c>
       <c r="H35">
-        <v>0.1407154996741042</v>
-      </c>
-      <c r="I35">
-        <v>0.1786123401085486</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.1711630774822389</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.2043500842941342</v>
+        <v>0.2345840587527976</v>
       </c>
       <c r="C36">
-        <v>0.2258011730133502</v>
+        <v>0.2504702993401678</v>
       </c>
       <c r="D36">
-        <v>0.05136378323750162</v>
+        <v>0.05634174670115993</v>
       </c>
       <c r="E36">
-        <v>0.04258237301089837</v>
+        <v>0.05161454950975291</v>
       </c>
       <c r="F36">
-        <v>0.02490994548108121</v>
+        <v>0.02608309474348299</v>
       </c>
       <c r="G36">
-        <v>0.2455385508056387</v>
+        <v>0.2741357857498315</v>
       </c>
       <c r="H36">
-        <v>0.09039068929026146</v>
-      </c>
-      <c r="I36">
-        <v>0.1150634008671341</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1067704652028072</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1754870463207148</v>
+        <v>0.2067146028805969</v>
       </c>
       <c r="C37">
-        <v>0.1207442346390669</v>
+        <v>0.1390007611919248</v>
       </c>
       <c r="D37">
-        <v>0.1471928373394701</v>
+        <v>0.1482595510188921</v>
       </c>
       <c r="E37">
-        <v>0.194840937938855</v>
+        <v>0.2083401450485369</v>
       </c>
       <c r="F37">
-        <v>0.04463004774972931</v>
+        <v>0.04873448816497162</v>
       </c>
       <c r="G37">
-        <v>0.08734773891643136</v>
+        <v>0.09911409819468166</v>
       </c>
       <c r="H37">
-        <v>0.133651975754793</v>
-      </c>
-      <c r="I37">
-        <v>0.09610518134093943</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1498363535003961</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1221952848186379</v>
+        <v>0.1431724574244246</v>
       </c>
       <c r="C38">
-        <v>0.1738331249842107</v>
+        <v>0.1972004605359628</v>
       </c>
       <c r="D38">
-        <v>0.1163493492399321</v>
+        <v>0.1315592606842964</v>
       </c>
       <c r="E38">
-        <v>0.1151993088650833</v>
+        <v>0.131185514719258</v>
       </c>
       <c r="F38">
-        <v>0.08739222083554146</v>
+        <v>0.104448619019073</v>
       </c>
       <c r="G38">
-        <v>0.1219747816541523</v>
+        <v>0.1475524468710613</v>
       </c>
       <c r="H38">
-        <v>0.1251328892690561</v>
-      </c>
-      <c r="I38">
-        <v>0.1379230403333863</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1448812407459239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.1438941854510914</v>
+        <v>0.1814812996632336</v>
       </c>
       <c r="C39">
-        <v>0.2025322302621663</v>
+        <v>0.2458357406201912</v>
       </c>
       <c r="D39">
-        <v>0.05628186997748313</v>
+        <v>0.06798937327192908</v>
       </c>
       <c r="E39">
-        <v>0.05046322691724382</v>
+        <v>0.05920765190048318</v>
       </c>
       <c r="F39">
-        <v>0.02322199735716033</v>
+        <v>0.02844257220193648</v>
       </c>
       <c r="G39">
-        <v>0.1655467945982985</v>
+        <v>0.2088895270016828</v>
       </c>
       <c r="H39">
-        <v>0.1759717971697956</v>
-      </c>
-      <c r="I39">
-        <v>0.1820878982667609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.2081538353405437</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.06152116851184368</v>
+        <v>0.06736887245498009</v>
       </c>
       <c r="C40">
-        <v>0.02680648859713468</v>
+        <v>0.02727681667776565</v>
       </c>
       <c r="D40">
-        <v>0.3179991780236538</v>
+        <v>0.3512427437405657</v>
       </c>
       <c r="E40">
-        <v>0.2238020364376054</v>
+        <v>0.2210472995113327</v>
       </c>
       <c r="F40">
-        <v>0.1534604339113535</v>
+        <v>0.156620867820305</v>
       </c>
       <c r="G40">
-        <v>0.08167176133877685</v>
+        <v>0.09024266174177721</v>
       </c>
       <c r="H40">
-        <v>0.07854744863928093</v>
-      </c>
-      <c r="I40">
-        <v>0.05619148454035105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.08620073805327358</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1287964571960095</v>
+        <v>0.1426916499410571</v>
       </c>
       <c r="C41">
-        <v>0.07463474399424681</v>
+        <v>0.08527225031306097</v>
       </c>
       <c r="D41">
-        <v>0.1050906701440883</v>
+        <v>0.1225787352484574</v>
       </c>
       <c r="E41">
-        <v>0.1229008162865589</v>
+        <v>0.1391120056255315</v>
       </c>
       <c r="F41">
-        <v>0.2047476530377128</v>
+        <v>0.2302900441743304</v>
       </c>
       <c r="G41">
-        <v>0.1340259998662939</v>
+        <v>0.1510259010565145</v>
       </c>
       <c r="H41">
-        <v>0.1064676703290648</v>
-      </c>
-      <c r="I41">
-        <v>0.1233359891460251</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.1290294136410481</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.1610008162784119</v>
+        <v>0.1872432428746172</v>
       </c>
       <c r="C42">
-        <v>0.1996473280944481</v>
+        <v>0.2352166553282183</v>
       </c>
       <c r="D42">
-        <v>0.06507371507091617</v>
+        <v>0.07753328822116748</v>
       </c>
       <c r="E42">
-        <v>0.06820982427680382</v>
+        <v>0.08077726714393491</v>
       </c>
       <c r="F42">
-        <v>0.03593838674313848</v>
+        <v>0.04356277081462706</v>
       </c>
       <c r="G42">
-        <v>0.1469702650207427</v>
+        <v>0.1818005311652817</v>
       </c>
       <c r="H42">
-        <v>0.1678360121834101</v>
-      </c>
-      <c r="I42">
-        <v>0.1553236523321289</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1938662444521532</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1591555279744785</v>
+        <v>0.1858989230616169</v>
       </c>
       <c r="C43">
-        <v>0.2019482281827263</v>
+        <v>0.2411227078634896</v>
       </c>
       <c r="D43">
-        <v>0.05768495251160782</v>
+        <v>0.06685830753252511</v>
       </c>
       <c r="E43">
-        <v>0.04977173712192628</v>
+        <v>0.05581055461666735</v>
       </c>
       <c r="F43">
-        <v>0.02406905962298084</v>
+        <v>0.02713968192384327</v>
       </c>
       <c r="G43">
-        <v>0.1832858132644407</v>
+        <v>0.22115960387192</v>
       </c>
       <c r="H43">
-        <v>0.1675460301587931</v>
-      </c>
-      <c r="I43">
-        <v>0.1565386511630464</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.2020102211299377</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.2823909541085398</v>
+        <v>0.3264052927471135</v>
       </c>
       <c r="C44">
-        <v>0.2169278977747998</v>
+        <v>0.2955792024171224</v>
       </c>
       <c r="D44">
-        <v>0.09647231892787643</v>
+        <v>0.1062986547672199</v>
       </c>
       <c r="E44">
-        <v>0.03813214300466941</v>
+        <v>0.03995735979573566</v>
       </c>
       <c r="F44">
-        <v>0.02201500482897475</v>
+        <v>0.02298340944905277</v>
       </c>
       <c r="G44">
-        <v>0.1462119095870109</v>
+        <v>0.1595611493824639</v>
       </c>
       <c r="H44">
-        <v>0.0465200682000302</v>
-      </c>
-      <c r="I44">
-        <v>0.1513297035680986</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.04921493144129171</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.08766804264851048</v>
+        <v>0.09095771702580477</v>
       </c>
       <c r="C45">
-        <v>0.1095464606920565</v>
+        <v>0.1174342746898597</v>
       </c>
       <c r="D45">
-        <v>0.2751741179662397</v>
+        <v>0.2795947986053096</v>
       </c>
       <c r="E45">
-        <v>0.159819295528778</v>
+        <v>0.1598492761715713</v>
       </c>
       <c r="F45">
-        <v>0.1563391574239977</v>
+        <v>0.1742315964219287</v>
       </c>
       <c r="G45">
-        <v>0.05771489926710366</v>
+        <v>0.06425472556691413</v>
       </c>
       <c r="H45">
-        <v>0.0945541455306749</v>
-      </c>
-      <c r="I45">
-        <v>0.05918388094263906</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1136776115186118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1809490112294735</v>
+        <v>0.2340999643027226</v>
       </c>
       <c r="C46">
-        <v>0.1630144132319087</v>
+        <v>0.197678674451328</v>
       </c>
       <c r="D46">
-        <v>0.05078708659694532</v>
+        <v>0.06240706336733114</v>
       </c>
       <c r="E46">
-        <v>0.0405616838465036</v>
+        <v>0.05253780539780087</v>
       </c>
       <c r="F46">
-        <v>0.01990062273912823</v>
+        <v>0.02429139342731262</v>
       </c>
       <c r="G46">
-        <v>0.1983999594247731</v>
+        <v>0.2329891729835601</v>
       </c>
       <c r="H46">
-        <v>0.1643477923619762</v>
-      </c>
-      <c r="I46">
-        <v>0.1820394305692915</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1959959260699447</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1030870774161241</v>
+        <v>0.11388156921869</v>
       </c>
       <c r="C47">
-        <v>0.09520408267673761</v>
+        <v>0.102792603143378</v>
       </c>
       <c r="D47">
-        <v>0.1949179754257546</v>
+        <v>0.2080987447248324</v>
       </c>
       <c r="E47">
-        <v>0.1780719916482919</v>
+        <v>0.1903929583984029</v>
       </c>
       <c r="F47">
-        <v>0.1563678706966214</v>
+        <v>0.1674132938205428</v>
       </c>
       <c r="G47">
-        <v>0.09735981598001452</v>
+        <v>0.1081690848717135</v>
       </c>
       <c r="H47">
-        <v>0.09828065565805832</v>
-      </c>
-      <c r="I47">
-        <v>0.07671053049839732</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1092517458224403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1636925585554274</v>
+        <v>0.195277773359286</v>
       </c>
       <c r="C48">
-        <v>0.2076163016381289</v>
+        <v>0.2589595433723554</v>
       </c>
       <c r="D48">
-        <v>0.05368290769438544</v>
+        <v>0.07080126057528088</v>
       </c>
       <c r="E48">
-        <v>0.06714624847372112</v>
+        <v>0.08426169478038435</v>
       </c>
       <c r="F48">
-        <v>0.01933107888981022</v>
+        <v>0.02353279095081914</v>
       </c>
       <c r="G48">
-        <v>0.163075331046058</v>
+        <v>0.1951906920168599</v>
       </c>
       <c r="H48">
-        <v>0.1381975999796267</v>
-      </c>
-      <c r="I48">
-        <v>0.1872579737228423</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.1719762449450144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.0867084796326589</v>
+        <v>0.0991557862962934</v>
       </c>
       <c r="C49">
-        <v>0.1257185177105805</v>
+        <v>0.1378397766750867</v>
       </c>
       <c r="D49">
-        <v>0.08892686339461695</v>
+        <v>0.106138914728383</v>
       </c>
       <c r="E49">
-        <v>0.1489550636365654</v>
+        <v>0.1578102530506912</v>
       </c>
       <c r="F49">
-        <v>0.2076320491114773</v>
+        <v>0.2276678926538794</v>
       </c>
       <c r="G49">
-        <v>0.1340602358753339</v>
+        <v>0.1520555129262556</v>
       </c>
       <c r="H49">
-        <v>0.1058304262910691</v>
-      </c>
-      <c r="I49">
-        <v>0.1021683643476981</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1193318636694107</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1086147922785902</v>
+        <v>0.1206872868938116</v>
       </c>
       <c r="C50">
-        <v>0.07656661070878948</v>
+        <v>0.08315309295330085</v>
       </c>
       <c r="D50">
-        <v>0.167462185916976</v>
+        <v>0.1817563729846787</v>
       </c>
       <c r="E50">
-        <v>0.1522854695351995</v>
+        <v>0.1628549809601478</v>
       </c>
       <c r="F50">
-        <v>0.2351889771121378</v>
+        <v>0.2552402508745346</v>
       </c>
       <c r="G50">
-        <v>0.08289865464664728</v>
+        <v>0.09297459417994927</v>
       </c>
       <c r="H50">
-        <v>0.1003454529212327</v>
-      </c>
-      <c r="I50">
-        <v>0.07663785688042712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.103333421153577</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1304187971881757</v>
+        <v>0.1527697532645651</v>
       </c>
       <c r="C51">
-        <v>0.1525600203396654</v>
+        <v>0.1783990440397478</v>
       </c>
       <c r="D51">
-        <v>0.1007604391584786</v>
+        <v>0.114100102417052</v>
       </c>
       <c r="E51">
-        <v>0.09500413609150077</v>
+        <v>0.1074932726521153</v>
       </c>
       <c r="F51">
-        <v>0.09596270571023</v>
+        <v>0.1066383199796634</v>
       </c>
       <c r="G51">
-        <v>0.151020986442982</v>
+        <v>0.1738656279337782</v>
       </c>
       <c r="H51">
-        <v>0.1407792529672354</v>
-      </c>
-      <c r="I51">
-        <v>0.1334936621017321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.166733879713078</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.08386425823553649</v>
+        <v>0.08037220382891906</v>
       </c>
       <c r="C52">
-        <v>0.01954997541150395</v>
+        <v>0.02177508010752329</v>
       </c>
       <c r="D52">
-        <v>0.2172661530102185</v>
+        <v>0.2418126127232988</v>
       </c>
       <c r="E52">
-        <v>0.1256609058467659</v>
+        <v>0.1392875938698286</v>
       </c>
       <c r="F52">
-        <v>0.2932492602944363</v>
+        <v>0.3128906116066997</v>
       </c>
       <c r="G52">
-        <v>0.1235161990580789</v>
+        <v>0.1242074387919638</v>
       </c>
       <c r="H52">
-        <v>0.07708983618871156</v>
-      </c>
-      <c r="I52">
-        <v>0.05980341195474837</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.07965445907176669</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.1109910547568299</v>
+        <v>0.1285595392541774</v>
       </c>
       <c r="C53">
-        <v>0.08551179424651477</v>
+        <v>0.09636373440314054</v>
       </c>
       <c r="D53">
-        <v>0.1388528464142633</v>
+        <v>0.1425756830467544</v>
       </c>
       <c r="E53">
-        <v>0.1575028723188737</v>
+        <v>0.1688489880771082</v>
       </c>
       <c r="F53">
-        <v>0.1945106449629004</v>
+        <v>0.2149199820491501</v>
       </c>
       <c r="G53">
-        <v>0.1178191597549513</v>
+        <v>0.1346780169306915</v>
       </c>
       <c r="H53">
-        <v>0.1034126902061552</v>
-      </c>
-      <c r="I53">
-        <v>0.09139893733951153</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1140540562389778</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.1177754609755894</v>
+        <v>0.127718249061006</v>
       </c>
       <c r="C54">
-        <v>0.08102265172979155</v>
+        <v>0.08867164579870686</v>
       </c>
       <c r="D54">
-        <v>0.1756628746678414</v>
+        <v>0.1920960854304296</v>
       </c>
       <c r="E54">
-        <v>0.1750618282981252</v>
+        <v>0.1908995423336766</v>
       </c>
       <c r="F54">
-        <v>0.1753789903913232</v>
+        <v>0.1855358814382869</v>
       </c>
       <c r="G54">
-        <v>0.09925050846138946</v>
+        <v>0.1080537989232189</v>
       </c>
       <c r="H54">
-        <v>0.09719984419458587</v>
-      </c>
-      <c r="I54">
-        <v>0.07864784128135409</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1070247970146752</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.1038049950712244</v>
+        <v>0.1187883719070158</v>
       </c>
       <c r="C55">
-        <v>0.0924175534991403</v>
+        <v>0.09908899930602498</v>
       </c>
       <c r="D55">
-        <v>0.176928560615639</v>
+        <v>0.1952367171619837</v>
       </c>
       <c r="E55">
-        <v>0.1903337261495188</v>
+        <v>0.2110889492960077</v>
       </c>
       <c r="F55">
-        <v>0.1244918319405429</v>
+        <v>0.1340004980625009</v>
       </c>
       <c r="G55">
-        <v>0.1157276108671911</v>
+        <v>0.1307349703375759</v>
       </c>
       <c r="H55">
-        <v>0.1037960835518432</v>
-      </c>
-      <c r="I55">
-        <v>0.09249963830490036</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.111061493928891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1274945833618972</v>
+        <v>0.1461667830867227</v>
       </c>
       <c r="C56">
-        <v>0.1404838337909157</v>
+        <v>0.1645904888844509</v>
       </c>
       <c r="D56">
-        <v>0.1025431341320906</v>
+        <v>0.1133793736495522</v>
       </c>
       <c r="E56">
-        <v>0.09610734892496371</v>
+        <v>0.1062623794294611</v>
       </c>
       <c r="F56">
-        <v>0.0822403774642749</v>
+        <v>0.08856083620797457</v>
       </c>
       <c r="G56">
-        <v>0.1522470019663371</v>
+        <v>0.1781693645519084</v>
       </c>
       <c r="H56">
-        <v>0.1683761055207762</v>
-      </c>
-      <c r="I56">
-        <v>0.1305076148387449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.2028707741899301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.06937899524932706</v>
+        <v>0.07394282517126331</v>
       </c>
       <c r="C57">
-        <v>0.05690479113145709</v>
+        <v>0.0590196127007627</v>
       </c>
       <c r="D57">
-        <v>0.3058744061151241</v>
+        <v>0.3111164087390559</v>
       </c>
       <c r="E57">
-        <v>0.2053540062942194</v>
+        <v>0.2121091307917</v>
       </c>
       <c r="F57">
-        <v>0.1541116089786905</v>
+        <v>0.1628967336076026</v>
       </c>
       <c r="G57">
-        <v>0.0897546311649189</v>
+        <v>0.1007858134732947</v>
       </c>
       <c r="H57">
-        <v>0.07135919203205117</v>
-      </c>
-      <c r="I57">
-        <v>0.0472623690342119</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.08012947551632094</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.08111948253855553</v>
+        <v>0.083412200637399</v>
       </c>
       <c r="C58">
-        <v>0.06783542775609462</v>
+        <v>0.07300272018637267</v>
       </c>
       <c r="D58">
-        <v>0.2259312208077862</v>
+        <v>0.2405120625016502</v>
       </c>
       <c r="E58">
-        <v>0.1838661579061142</v>
+        <v>0.202827446682563</v>
       </c>
       <c r="F58">
-        <v>0.1824544983520432</v>
+        <v>0.2021076681636272</v>
       </c>
       <c r="G58">
-        <v>0.09336271685657206</v>
+        <v>0.0987079392766106</v>
       </c>
       <c r="H58">
-        <v>0.09233632334141252</v>
-      </c>
-      <c r="I58">
-        <v>0.07309417244142145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.09942996255177733</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.01915575445138851</v>
+        <v>0.01944601900300134</v>
       </c>
       <c r="C59">
-        <v>0.002919659430221391</v>
+        <v>0.002431134839772277</v>
       </c>
       <c r="D59">
-        <v>0.3829844143965482</v>
+        <v>0.3973302408537775</v>
       </c>
       <c r="E59">
-        <v>0.4309117424255114</v>
+        <v>0.4673801739565753</v>
       </c>
       <c r="F59">
-        <v>0.09831063389368729</v>
+        <v>0.1023410701303415</v>
       </c>
       <c r="G59">
-        <v>0.008177017815988345</v>
+        <v>0.007106152989201374</v>
       </c>
       <c r="H59">
-        <v>0.004575412610664567</v>
-      </c>
-      <c r="I59">
-        <v>0.05296536497599028</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.003965208227330755</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.09943295369658874</v>
+        <v>0.111079796186596</v>
       </c>
       <c r="C60">
-        <v>0.1055175225113984</v>
+        <v>0.1194478076417145</v>
       </c>
       <c r="D60">
-        <v>0.2009945131635112</v>
+        <v>0.2126275711670595</v>
       </c>
       <c r="E60">
-        <v>0.1496204729044225</v>
+        <v>0.1630722241069885</v>
       </c>
       <c r="F60">
-        <v>0.1251862564638831</v>
+        <v>0.1348801511612633</v>
       </c>
       <c r="G60">
-        <v>0.1173358903620798</v>
+        <v>0.13181973988427</v>
       </c>
       <c r="H60">
-        <v>0.1145333743977503</v>
-      </c>
-      <c r="I60">
-        <v>0.08737901650036585</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1270727098521079</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.07747791214507643</v>
+        <v>0.08085388305871548</v>
       </c>
       <c r="C61">
-        <v>0.04501984724131027</v>
+        <v>0.05014280474251613</v>
       </c>
       <c r="D61">
-        <v>0.3091523458926855</v>
+        <v>0.3247463924083787</v>
       </c>
       <c r="E61">
-        <v>0.2379663645922225</v>
+        <v>0.2472209899466644</v>
       </c>
       <c r="F61">
-        <v>0.1227843993747842</v>
+        <v>0.1244575228938472</v>
       </c>
       <c r="G61">
-        <v>0.09027180916946292</v>
+        <v>0.0964654863254242</v>
       </c>
       <c r="H61">
-        <v>0.06932898514660961</v>
-      </c>
-      <c r="I61">
-        <v>0.04799833643784861</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.07611292062445392</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.08650405698779</v>
+        <v>0.09734745626533607</v>
       </c>
       <c r="C62">
-        <v>0.105564933059839</v>
+        <v>0.118586623494041</v>
       </c>
       <c r="D62">
-        <v>0.2172539965204772</v>
+        <v>0.2365168875319831</v>
       </c>
       <c r="E62">
-        <v>0.2130117857080366</v>
+        <v>0.2244179941781171</v>
       </c>
       <c r="F62">
-        <v>0.1096961417360863</v>
+        <v>0.1172484556921972</v>
       </c>
       <c r="G62">
-        <v>0.07691861332331824</v>
+        <v>0.08737174032604515</v>
       </c>
       <c r="H62">
-        <v>0.1049751470370568</v>
-      </c>
-      <c r="I62">
-        <v>0.08607532562739585</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1185108425122804</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.1315505884424813</v>
+        <v>0.147921416278388</v>
       </c>
       <c r="C63">
-        <v>0.1374499249398962</v>
+        <v>0.1588444443702878</v>
       </c>
       <c r="D63">
-        <v>0.1134457734110436</v>
+        <v>0.1290979984843245</v>
       </c>
       <c r="E63">
-        <v>0.1027968871225573</v>
+        <v>0.1218377397019508</v>
       </c>
       <c r="F63">
-        <v>0.08581249575801095</v>
+        <v>0.09864011530175677</v>
       </c>
       <c r="G63">
-        <v>0.174019862161871</v>
+        <v>0.1868985872515375</v>
       </c>
       <c r="H63">
-        <v>0.1342099568663927</v>
-      </c>
-      <c r="I63">
-        <v>0.120714511297747</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1567596986117545</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.145214183367906</v>
+        <v>0.1694014505980227</v>
       </c>
       <c r="C64">
-        <v>0.1565917995715702</v>
+        <v>0.1799476970281178</v>
       </c>
       <c r="D64">
-        <v>0.09839855298728928</v>
+        <v>0.1125411610896159</v>
       </c>
       <c r="E64">
-        <v>0.0955377103812996</v>
+        <v>0.1101471284526944</v>
       </c>
       <c r="F64">
-        <v>0.07743648668846374</v>
+        <v>0.09261249791224097</v>
       </c>
       <c r="G64">
-        <v>0.1685423266399322</v>
+        <v>0.1970903204070169</v>
       </c>
       <c r="H64">
-        <v>0.1133363816473111</v>
-      </c>
-      <c r="I64">
-        <v>0.144942558716228</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1382597445122914</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.09552868725803737</v>
+        <v>0.1093770719999315</v>
       </c>
       <c r="C65">
-        <v>0.04404866060461505</v>
+        <v>0.0514880592587838</v>
       </c>
       <c r="D65">
-        <v>0.323233034967904</v>
+        <v>0.3241639737466887</v>
       </c>
       <c r="E65">
-        <v>0.2211672375669572</v>
+        <v>0.2356621051445213</v>
       </c>
       <c r="F65">
-        <v>0.107921710281692</v>
+        <v>0.1126182400499901</v>
       </c>
       <c r="G65">
-        <v>0.09146834293640431</v>
+        <v>0.0943879372875831</v>
       </c>
       <c r="H65">
-        <v>0.06390298679206087</v>
-      </c>
-      <c r="I65">
-        <v>0.05272933959232916</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.07230261251250145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1830578472799691</v>
+        <v>0.2085380497363435</v>
       </c>
       <c r="C66">
-        <v>0.1036522799206356</v>
+        <v>0.1182372943600201</v>
       </c>
       <c r="D66">
-        <v>0.09249048079987017</v>
+        <v>0.115565692630466</v>
       </c>
       <c r="E66">
-        <v>0.1289824437087856</v>
+        <v>0.1445508189807866</v>
       </c>
       <c r="F66">
-        <v>0.02882520827894854</v>
+        <v>0.03600495268612215</v>
       </c>
       <c r="G66">
-        <v>0.1443827335398445</v>
+        <v>0.1713992484776545</v>
       </c>
       <c r="H66">
-        <v>0.1720068424669669</v>
-      </c>
-      <c r="I66">
-        <v>0.1466021640049797</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.2057039431286072</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.1176945320759187</v>
+        <v>0.1329818470145932</v>
       </c>
       <c r="C67">
-        <v>0.07663023900608294</v>
+        <v>0.08620902865236149</v>
       </c>
       <c r="D67">
-        <v>0.1424939438302567</v>
+        <v>0.1607139617475769</v>
       </c>
       <c r="E67">
-        <v>0.1430065779702119</v>
+        <v>0.1600902700933093</v>
       </c>
       <c r="F67">
-        <v>0.1385190151198423</v>
+        <v>0.1523174064809833</v>
       </c>
       <c r="G67">
-        <v>0.1401423829000611</v>
+        <v>0.1578758494863006</v>
       </c>
       <c r="H67">
-        <v>0.136706806940886</v>
-      </c>
-      <c r="I67">
-        <v>0.1048065021567404</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1498116365248751</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.06407009414230924</v>
+        <v>0.06764509545027066</v>
       </c>
       <c r="C68">
-        <v>0.05008868937910721</v>
+        <v>0.0539760842249007</v>
       </c>
       <c r="D68">
-        <v>0.294667937735156</v>
+        <v>0.3061821847603232</v>
       </c>
       <c r="E68">
-        <v>0.2243426168616208</v>
+        <v>0.2374168038814591</v>
       </c>
       <c r="F68">
-        <v>0.1625574922481922</v>
+        <v>0.1730277507697642</v>
       </c>
       <c r="G68">
-        <v>0.08856374830148241</v>
+        <v>0.09104266975022368</v>
       </c>
       <c r="H68">
-        <v>0.06479162645845468</v>
-      </c>
-      <c r="I68">
-        <v>0.0509177948736772</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.07070941116305823</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.09231810663348336</v>
+        <v>0.09985029294842994</v>
       </c>
       <c r="C69">
-        <v>0.06404107609869662</v>
+        <v>0.06581457084848469</v>
       </c>
       <c r="D69">
-        <v>0.3128599469265702</v>
+        <v>0.324196232198553</v>
       </c>
       <c r="E69">
-        <v>0.2488448058925954</v>
+        <v>0.2657073811191013</v>
       </c>
       <c r="F69">
-        <v>0.0651241244391184</v>
+        <v>0.0715033670696948</v>
       </c>
       <c r="G69">
-        <v>0.0674869662819024</v>
+        <v>0.0727311476184152</v>
       </c>
       <c r="H69">
-        <v>0.09574868426110753</v>
-      </c>
-      <c r="I69">
-        <v>0.05357628946652623</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1001970081973211</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1246357154712</v>
+        <v>0.1428025689258347</v>
       </c>
       <c r="C70">
-        <v>0.09115096269536256</v>
+        <v>0.1021822968330384</v>
       </c>
       <c r="D70">
-        <v>0.1753137342216882</v>
+        <v>0.1911328648039332</v>
       </c>
       <c r="E70">
-        <v>0.1451691299336909</v>
+        <v>0.1558326862641647</v>
       </c>
       <c r="F70">
-        <v>0.122156656018767</v>
+        <v>0.1327954169587047</v>
       </c>
       <c r="G70">
-        <v>0.1211677543717949</v>
+        <v>0.1337443205460153</v>
       </c>
       <c r="H70">
-        <v>0.1279802332779806</v>
-      </c>
-      <c r="I70">
-        <v>0.09242581400951592</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1415098456683089</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.1156200156435306</v>
+        <v>0.1311033380413529</v>
       </c>
       <c r="C71">
-        <v>0.09808851986927142</v>
+        <v>0.1098005742762457</v>
       </c>
       <c r="D71">
-        <v>0.1449787289501701</v>
+        <v>0.1560581823523476</v>
       </c>
       <c r="E71">
-        <v>0.12935291864944</v>
+        <v>0.136393272124331</v>
       </c>
       <c r="F71">
-        <v>0.2003051009107783</v>
+        <v>0.2164135241381184</v>
       </c>
       <c r="G71">
-        <v>0.1183497081563538</v>
+        <v>0.124209694989997</v>
       </c>
       <c r="H71">
-        <v>0.1202506718523313</v>
-      </c>
-      <c r="I71">
-        <v>0.07305433596812431</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1260214140776074</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1305609037125245</v>
+        <v>0.1393138299225548</v>
       </c>
       <c r="C72">
-        <v>0.1200418300191795</v>
+        <v>0.1377795688920352</v>
       </c>
       <c r="D72">
-        <v>0.143390174278756</v>
+        <v>0.1534445067942857</v>
       </c>
       <c r="E72">
-        <v>0.1530512353586681</v>
+        <v>0.1659466052708136</v>
       </c>
       <c r="F72">
-        <v>0.1450648669446798</v>
+        <v>0.1641240032244972</v>
       </c>
       <c r="G72">
-        <v>0.1126256104505446</v>
+        <v>0.1216645158803083</v>
       </c>
       <c r="H72">
-        <v>0.1059419912444821</v>
-      </c>
-      <c r="I72">
-        <v>0.08932338799116538</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1177269700155049</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.08946634261435944</v>
+        <v>0.09587772211716951</v>
       </c>
       <c r="C73">
-        <v>0.05614801951390005</v>
+        <v>0.0590885831335695</v>
       </c>
       <c r="D73">
-        <v>0.2469316509394343</v>
+        <v>0.2666638520718112</v>
       </c>
       <c r="E73">
-        <v>0.2338681216917403</v>
+        <v>0.2486856888193344</v>
       </c>
       <c r="F73">
-        <v>0.1443007817560627</v>
+        <v>0.1536252587669378</v>
       </c>
       <c r="G73">
-        <v>0.08651041287168298</v>
+        <v>0.09465816890835765</v>
       </c>
       <c r="H73">
-        <v>0.07411674054061596</v>
-      </c>
-      <c r="I73">
-        <v>0.06865793007220432</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.08140072618282002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.01759963836154098</v>
+        <v>0.01535622944751028</v>
       </c>
       <c r="C74">
-        <v>0.03093027690840036</v>
+        <v>0.02760966598795534</v>
       </c>
       <c r="D74">
-        <v>0.305880260818065</v>
+        <v>0.3405960429174227</v>
       </c>
       <c r="E74">
-        <v>0.2945898521399892</v>
+        <v>0.3417570620924424</v>
       </c>
       <c r="F74">
-        <v>0.1536884822231857</v>
+        <v>0.166854318253135</v>
       </c>
       <c r="G74">
-        <v>0.06740359837708623</v>
+        <v>0.06155163523137728</v>
       </c>
       <c r="H74">
-        <v>0.05081619310796961</v>
-      </c>
-      <c r="I74">
-        <v>0.0790916980637629</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.04627504607015684</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1187002437049922</v>
+        <v>0.1279913075578075</v>
       </c>
       <c r="C75">
-        <v>0.09371277215307973</v>
+        <v>0.09969355136143357</v>
       </c>
       <c r="D75">
-        <v>0.1226456267921626</v>
+        <v>0.1202435758625185</v>
       </c>
       <c r="E75">
-        <v>0.1537355924843445</v>
+        <v>0.1542005029721837</v>
       </c>
       <c r="F75">
-        <v>0.2078262060630417</v>
+        <v>0.2558449487298632</v>
       </c>
       <c r="G75">
-        <v>0.1051665129176215</v>
+        <v>0.1135843489420602</v>
       </c>
       <c r="H75">
-        <v>0.1179051388365888</v>
-      </c>
-      <c r="I75">
-        <v>0.08030790704816897</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1284417645741333</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.08105553546980611</v>
+        <v>0.088022042649951</v>
       </c>
       <c r="C76">
-        <v>0.08733965523131926</v>
+        <v>0.08937530875619652</v>
       </c>
       <c r="D76">
-        <v>0.2377642826665123</v>
+        <v>0.2519056685496454</v>
       </c>
       <c r="E76">
-        <v>0.1793665295359517</v>
+        <v>0.1905068448647702</v>
       </c>
       <c r="F76">
-        <v>0.1242844010158157</v>
+        <v>0.1419380315483272</v>
       </c>
       <c r="G76">
-        <v>0.1251965378234392</v>
+        <v>0.1393967069261906</v>
       </c>
       <c r="H76">
-        <v>0.09095763440302848</v>
-      </c>
-      <c r="I76">
-        <v>0.07403542385412727</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.09885539670491902</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.1599423184330288</v>
+        <v>0.2032639324701636</v>
       </c>
       <c r="C77">
-        <v>0.2411036001449128</v>
+        <v>0.29897915128716</v>
       </c>
       <c r="D77">
-        <v>0.06638887305493289</v>
+        <v>0.07628715699375638</v>
       </c>
       <c r="E77">
-        <v>0.05541314059636024</v>
+        <v>0.06406279113173903</v>
       </c>
       <c r="F77">
-        <v>0.01957662923859866</v>
+        <v>0.02222454231585428</v>
       </c>
       <c r="G77">
-        <v>0.1436395394407111</v>
+        <v>0.1778880879640358</v>
       </c>
       <c r="H77">
-        <v>0.1260560770314013</v>
-      </c>
-      <c r="I77">
-        <v>0.1878798220600542</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.157294337837291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1200126442961361</v>
+        <v>0.1376163826168661</v>
       </c>
       <c r="C78">
-        <v>0.1620243442825854</v>
+        <v>0.1825866449144026</v>
       </c>
       <c r="D78">
-        <v>0.1019877591802046</v>
+        <v>0.1130740447268325</v>
       </c>
       <c r="E78">
-        <v>0.1207266086082722</v>
+        <v>0.1276670748807297</v>
       </c>
       <c r="F78">
-        <v>0.1016398624518465</v>
+        <v>0.1217028447465633</v>
       </c>
       <c r="G78">
-        <v>0.1549835233656566</v>
+        <v>0.1762201360337889</v>
       </c>
       <c r="H78">
-        <v>0.1219845215383018</v>
-      </c>
-      <c r="I78">
-        <v>0.1166407362769969</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.141132872080817</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.137616547364238</v>
+        <v>0.1596534163339077</v>
       </c>
       <c r="C79">
-        <v>0.1271890124311617</v>
+        <v>0.1417997767489091</v>
       </c>
       <c r="D79">
-        <v>0.1337262985507981</v>
+        <v>0.1434927422071099</v>
       </c>
       <c r="E79">
-        <v>0.1285619602357749</v>
+        <v>0.1363546729173064</v>
       </c>
       <c r="F79">
-        <v>0.1029037139616739</v>
+        <v>0.1056037219683711</v>
       </c>
       <c r="G79">
-        <v>0.1547192532796594</v>
+        <v>0.1801157661394923</v>
       </c>
       <c r="H79">
-        <v>0.117603396729628</v>
-      </c>
-      <c r="I79">
-        <v>0.09767981744706593</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1329799036849036</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1063656286484512</v>
+        <v>0.1200874519660507</v>
       </c>
       <c r="C80">
-        <v>0.1040892372042595</v>
+        <v>0.1175173867696473</v>
       </c>
       <c r="D80">
-        <v>0.1861723391272515</v>
+        <v>0.1984657296000025</v>
       </c>
       <c r="E80">
-        <v>0.1382094427866218</v>
+        <v>0.149952140793189</v>
       </c>
       <c r="F80">
-        <v>0.1093519043897006</v>
+        <v>0.1205470695457934</v>
       </c>
       <c r="G80">
-        <v>0.1345534769275201</v>
+        <v>0.1534062210877857</v>
       </c>
       <c r="H80">
-        <v>0.1267556623496056</v>
-      </c>
-      <c r="I80">
-        <v>0.09450230856658962</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1400240002375314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.1219542662786849</v>
+        <v>0.1315836297019176</v>
       </c>
       <c r="C81">
-        <v>0.1072359311521425</v>
+        <v>0.1200455247117184</v>
       </c>
       <c r="D81">
-        <v>0.172937272502288</v>
+        <v>0.1989274398807653</v>
       </c>
       <c r="E81">
-        <v>0.1681218012448509</v>
+        <v>0.1877732876064441</v>
       </c>
       <c r="F81">
-        <v>0.1059501092433235</v>
+        <v>0.1151571417233617</v>
       </c>
       <c r="G81">
-        <v>0.1116479208572532</v>
+        <v>0.1249845647562354</v>
       </c>
       <c r="H81">
-        <v>0.1087660843657358</v>
-      </c>
-      <c r="I81">
-        <v>0.1033866143557212</v>
+        <v>0.1215284116195575</v>
       </c>
     </row>
   </sheetData>
